--- a/data/trans_orig/P04C04_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P04C04_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>457205</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>442639</v>
+        <v>440530</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>469123</v>
+        <v>468913</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.927224354094193</v>
+        <v>0.9272243540941929</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8976849729145588</v>
+        <v>0.8934061047115974</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9513952100518513</v>
+        <v>0.9509689648681841</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>780</v>
@@ -762,19 +762,19 @@
         <v>567464</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>554104</v>
+        <v>555368</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>578165</v>
+        <v>579716</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9120499595384761</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8905777922515571</v>
+        <v>0.8926089408505234</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9292488191169019</v>
+        <v>0.9317425838342688</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1199</v>
@@ -783,19 +783,19 @@
         <v>1024669</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1003947</v>
+        <v>1003561</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1040136</v>
+        <v>1041108</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.9187589243537823</v>
+        <v>0.9187589243537821</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9001792190750185</v>
+        <v>0.8998327738403945</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9326272346809414</v>
+        <v>0.9334985951760458</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>4490</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1464</v>
+        <v>1552</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10029</v>
+        <v>10241</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.009105486437395572</v>
+        <v>0.009105486437395571</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002969656717563462</v>
+        <v>0.003147088817047172</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0203384049505837</v>
+        <v>0.02076829647880596</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -833,19 +833,19 @@
         <v>4422</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1415</v>
+        <v>1489</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10420</v>
+        <v>11262</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.007107004539620412</v>
+        <v>0.00710700453962041</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002274120890840401</v>
+        <v>0.002393958557241851</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01674735309438599</v>
+        <v>0.01810070367427513</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>10</v>
@@ -854,19 +854,19 @@
         <v>8912</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>4199</v>
+        <v>4561</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>16783</v>
+        <v>15777</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.007990581455125659</v>
+        <v>0.007990581455125658</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003764885681839628</v>
+        <v>0.004089325802365331</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01504839570406</v>
+        <v>0.01414634151238012</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>31395</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20137</v>
+        <v>20350</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>47095</v>
+        <v>47527</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06367015946841154</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04083891323344839</v>
+        <v>0.04127064707969368</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09551076728467513</v>
+        <v>0.09638684251092094</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>74</v>
@@ -904,19 +904,19 @@
         <v>50299</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40222</v>
+        <v>38817</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>63606</v>
+        <v>61828</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08084303592190353</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06464670090337792</v>
+        <v>0.06238801077837173</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1022305239473358</v>
+        <v>0.09937248026140619</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>100</v>
@@ -925,19 +925,19 @@
         <v>81694</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>66093</v>
+        <v>65779</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>101789</v>
+        <v>102098</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.0732504941910921</v>
+        <v>0.07325049419109209</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05926124326913407</v>
+        <v>0.05898024265586475</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09126831707858928</v>
+        <v>0.09154527747064599</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>875179</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>849956</v>
+        <v>851981</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>894581</v>
+        <v>894538</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9123048220184876</v>
+        <v>0.9123048220184875</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8860116567519561</v>
+        <v>0.888122200693419</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.932529432589396</v>
+        <v>0.9324844330669776</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1436</v>
@@ -1050,19 +1050,19 @@
         <v>988671</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>965601</v>
+        <v>968271</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1006863</v>
+        <v>1006029</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8872228165518138</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8665198324008332</v>
+        <v>0.8689153362645724</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9035479008984184</v>
+        <v>0.9027990283840309</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2276</v>
@@ -1071,19 +1071,19 @@
         <v>1863851</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1830094</v>
+        <v>1831143</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1891503</v>
+        <v>1891217</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8988261858798943</v>
+        <v>0.8988261858798944</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8825471940260712</v>
+        <v>0.883052859139652</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9121610054490188</v>
+        <v>0.9120230484939482</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>7878</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2931</v>
+        <v>2611</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22280</v>
+        <v>20754</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.008212428243167006</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.003055582731740919</v>
+        <v>0.00272211234835745</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.02322540518762579</v>
+        <v>0.02163390956878062</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>12</v>
@@ -1121,19 +1121,19 @@
         <v>10115</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5364</v>
+        <v>5329</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>18955</v>
+        <v>18966</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.009077121802354076</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.004813399606354572</v>
+        <v>0.004782272280920771</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01700980683707721</v>
+        <v>0.01702024662162271</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -1142,19 +1142,19 @@
         <v>17993</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>10130</v>
+        <v>10286</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>32311</v>
+        <v>32574</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.008677099613690125</v>
+        <v>0.008677099613690127</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.004884879888144745</v>
+        <v>0.004960539946723578</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01558149958237824</v>
+        <v>0.01570866991752996</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>76248</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57670</v>
+        <v>58085</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100636</v>
+        <v>98702</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07948274973834546</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06011665931104855</v>
+        <v>0.06054922877342937</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1049054566718982</v>
+        <v>0.1028891200142144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>156</v>
@@ -1192,19 +1192,19 @@
         <v>115558</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98937</v>
+        <v>98857</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>136818</v>
+        <v>135124</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.103700061645832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08878476482595973</v>
+        <v>0.08871333227591022</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1227790739821816</v>
+        <v>0.1212584249187914</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>219</v>
@@ -1213,19 +1213,19 @@
         <v>191806</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>164651</v>
+        <v>165850</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>221847</v>
+        <v>222510</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09249671450641551</v>
+        <v>0.09249671450641553</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07940132471333022</v>
+        <v>0.07997971396254508</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1069836068705606</v>
+        <v>0.1073033132166382</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>931644</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>906747</v>
+        <v>906923</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>951979</v>
+        <v>951540</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8919457043498754</v>
+        <v>0.8919457043498756</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8681091613058128</v>
+        <v>0.8682776835404895</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9114137273618074</v>
+        <v>0.9109932649868506</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1323</v>
@@ -1338,19 +1338,19 @@
         <v>931331</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>914676</v>
+        <v>914228</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>946555</v>
+        <v>947465</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8909073264579903</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8749749017430599</v>
+        <v>0.8745461338197333</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9054700634032408</v>
+        <v>0.9063410699396423</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2239</v>
@@ -1359,19 +1359,19 @@
         <v>1862976</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1830382</v>
+        <v>1834068</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1887162</v>
+        <v>1888859</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8914263001152183</v>
+        <v>0.8914263001152184</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8758301203937918</v>
+        <v>0.8775939658775975</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9029993761042052</v>
+        <v>0.9038112501419039</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>7555</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3245</v>
+        <v>3031</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16004</v>
+        <v>14996</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.007232934593902755</v>
+        <v>0.007232934593902756</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.003106779388323411</v>
+        <v>0.002901926169248675</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.015321998886323</v>
+        <v>0.01435717948599624</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1409,19 +1409,19 @@
         <v>6843</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3388</v>
+        <v>3448</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11917</v>
+        <v>12006</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.006546432648826487</v>
+        <v>0.006546432648826486</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003240520504770046</v>
+        <v>0.003298459649500783</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01140006048738116</v>
+        <v>0.01148488439094066</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -1430,19 +1430,19 @@
         <v>14398</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>8627</v>
+        <v>8526</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>23670</v>
+        <v>22877</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.006889541287708876</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004127758364531867</v>
+        <v>0.004079816894267102</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01132622399618948</v>
+        <v>0.01094636413692194</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>105309</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>86392</v>
+        <v>86379</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>128780</v>
+        <v>130009</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1008213610562217</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08271058095276346</v>
+        <v>0.08269856117146142</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.123292153013709</v>
+        <v>0.1244693348760969</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>179</v>
@@ -1480,19 +1480,19 @@
         <v>107199</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>93000</v>
+        <v>91407</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>125558</v>
+        <v>124259</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1025462408931831</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08896348948169244</v>
+        <v>0.08743943842372356</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1201078617439384</v>
+        <v>0.1188659484639339</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>283</v>
@@ -1501,19 +1501,19 @@
         <v>212508</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>187387</v>
+        <v>187300</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>240222</v>
+        <v>240762</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1016841585970729</v>
+        <v>0.1016841585970728</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08966410141437743</v>
+        <v>0.08962241138571672</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1149453315054074</v>
+        <v>0.115203626333256</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>690773</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>657092</v>
+        <v>655618</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>719450</v>
+        <v>718769</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7082541274767329</v>
+        <v>0.7082541274767328</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.673720695467304</v>
+        <v>0.6722098322887639</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7376572616480814</v>
+        <v>0.7369591034888965</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>898</v>
@@ -1626,19 +1626,19 @@
         <v>651325</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>629415</v>
+        <v>627042</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>674999</v>
+        <v>674531</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.718958633353782</v>
+        <v>0.7189586333537817</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6947737604821467</v>
+        <v>0.692153869399589</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7450913123131528</v>
+        <v>0.744574417184786</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1555</v>
@@ -1647,19 +1647,19 @@
         <v>1342098</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1303155</v>
+        <v>1304210</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1379449</v>
+        <v>1379380</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.7134089606364142</v>
+        <v>0.7134089606364143</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6927082559459948</v>
+        <v>0.6932692189034982</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7332633577226365</v>
+        <v>0.733226863682222</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>28011</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17865</v>
+        <v>17699</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44100</v>
+        <v>42583</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02871954080063467</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01831679307122479</v>
+        <v>0.0181466901435708</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04521589753163625</v>
+        <v>0.04366038862807781</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>27</v>
@@ -1697,19 +1697,19 @@
         <v>20710</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13632</v>
+        <v>13624</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32989</v>
+        <v>32708</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02286076698109644</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01504706673794049</v>
+        <v>0.0150382036296436</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.03641416499514521</v>
+        <v>0.03610439930946173</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>50</v>
@@ -1718,19 +1718,19 @@
         <v>48721</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>35040</v>
+        <v>34407</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>66782</v>
+        <v>66223</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.02589820538292219</v>
+        <v>0.0258982053829222</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01862605857972812</v>
+        <v>0.01828968385115468</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0354989594818002</v>
+        <v>0.03520158219391193</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>256534</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>230138</v>
+        <v>228883</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>289869</v>
+        <v>292877</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2630263317226326</v>
+        <v>0.2630263317226325</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2359624010709601</v>
+        <v>0.2346756223014017</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2972048342247626</v>
+        <v>0.3002886423154584</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>394</v>
@@ -1768,19 +1768,19 @@
         <v>233893</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>210664</v>
+        <v>212898</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>254789</v>
+        <v>256537</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2581805996651216</v>
+        <v>0.2581805996651217</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2325399154567351</v>
+        <v>0.23500493040508</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2812458850444254</v>
+        <v>0.2831759641925101</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>660</v>
@@ -1789,19 +1789,19 @@
         <v>490427</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>452811</v>
+        <v>455372</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>526809</v>
+        <v>530159</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.2606928339806634</v>
+        <v>0.2606928339806635</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2406972441503337</v>
+        <v>0.2420587928798978</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2800320987579234</v>
+        <v>0.2818127235993089</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>2954802</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2905939</v>
+        <v>2908100</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3003513</v>
+        <v>2999900</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8509830072109303</v>
+        <v>0.8509830072109305</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.836910510587176</v>
+        <v>0.8375328892318518</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8650118241834504</v>
+        <v>0.8639712758655037</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4437</v>
@@ -1914,19 +1914,19 @@
         <v>3138791</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3100080</v>
+        <v>3100253</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3176292</v>
+        <v>3173688</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8511212562612718</v>
+        <v>0.8511212562612717</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8406242429624802</v>
+        <v>0.840671243251257</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8612899761933348</v>
+        <v>0.8605837753035763</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7269</v>
@@ -1935,19 +1935,19 @@
         <v>6093593</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6037490</v>
+        <v>6031448</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6148484</v>
+        <v>6148183</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8510542132632508</v>
+        <v>0.8510542132632509</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8432186492162475</v>
+        <v>0.8423747120434153</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8587204828349784</v>
+        <v>0.8586784371624233</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>47934</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>33899</v>
+        <v>33881</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>67057</v>
+        <v>67232</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01380487893713097</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.009762813539080222</v>
+        <v>0.009757644729949</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01931231273639405</v>
+        <v>0.01936286481110416</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>55</v>
@@ -1985,19 +1985,19 @@
         <v>42091</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>31700</v>
+        <v>30996</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>55880</v>
+        <v>56606</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.0114133714663149</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.008595844598625885</v>
+        <v>0.008404859028538157</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.01515254685668711</v>
+        <v>0.015349302746387</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>96</v>
@@ -2006,19 +2006,19 @@
         <v>90024</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>72192</v>
+        <v>73276</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>112527</v>
+        <v>113717</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01257311780986707</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01008267371502508</v>
+        <v>0.01023401776262391</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01571592918409118</v>
+        <v>0.01588219175011223</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>469486</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>425898</v>
+        <v>426786</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>518683</v>
+        <v>515658</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1352121138519386</v>
+        <v>0.1352121138519385</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1226587476238789</v>
+        <v>0.1229143673431547</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1493807644759877</v>
+        <v>0.1485096099145094</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>803</v>
@@ -2056,19 +2056,19 @@
         <v>506949</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>471957</v>
+        <v>475278</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>545027</v>
+        <v>545395</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1374653722724135</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1279769163077988</v>
+        <v>0.128877413219567</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1477905685903263</v>
+        <v>0.1478904374531729</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1262</v>
@@ -2077,19 +2077,19 @@
         <v>976436</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>924992</v>
+        <v>926846</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1035090</v>
+        <v>1043265</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1363726689268821</v>
+        <v>0.1363726689268822</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1291878808598456</v>
+        <v>0.1294467907103845</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1445645156869551</v>
+        <v>0.1457063505174516</v>
       </c>
     </row>
     <row r="23">
